--- a/medicine/Médecine vétérinaire/Joan_Capdevila_i_Esteve/Joan_Capdevila_i_Esteve.xlsx
+++ b/medicine/Médecine vétérinaire/Joan_Capdevila_i_Esteve/Joan_Capdevila_i_Esteve.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Joan Capdevila i Esteve, né le 12 juillet 1965, est un homme politique espagnol membre de la Gauche républicaine de Catalogne (ERC).
@@ -515,12 +527,87 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vie privée
-Il est marié et père d'un fils et une fille.
-Profession
-Joan Capdevila i Esteve possède une licence vétérinaire et un master obtenu par l'Université autonome de Barcelone.
-Activités politiques
-Le 20 décembre 2015, il est élu député pour Barcelone au Congrès des députés et réélu en 2016[1].
+          <t>Vie privée</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est marié et père d'un fils et une fille.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Joan_Capdevila_i_Esteve</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joan_Capdevila_i_Esteve</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Profession</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Joan Capdevila i Esteve possède une licence vétérinaire et un master obtenu par l'Université autonome de Barcelone.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Joan_Capdevila_i_Esteve</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joan_Capdevila_i_Esteve</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Activités politiques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 20 décembre 2015, il est élu député pour Barcelone au Congrès des députés et réélu en 2016.
 </t>
         </is>
       </c>
